--- a/src/analysis_examples/circadb/results_jtk/cosinor_10478778_arfgef2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10478778_arfgef2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2241341972434533, 0.3555742527016966]</t>
+          <t>[0.22360326709157743, 0.3561051828535725]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.60605964270178e-09</v>
+        <v>9.864229655320855e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>8.60605964270178e-09</v>
+        <v>9.864229655320855e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.01889491467777</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45293303658166917, 0.5233191744716295]</t>
+          <t>[0.4529415695868867, 0.5233106414664119]</t>
         </is>
       </c>
       <c r="U2" t="n">
